--- a/ChassisPlacement.xlsx
+++ b/ChassisPlacement.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="12510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9885" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="S4" sheetId="1" r:id="rId1"/>
     <sheet name="K6" sheetId="2" r:id="rId2"/>
+    <sheet name="K10" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>slot1</t>
   </si>
@@ -103,6 +104,18 @@
   </si>
   <si>
     <t>slot7</t>
+  </si>
+  <si>
+    <t>slot8</t>
+  </si>
+  <si>
+    <t>slot9</t>
+  </si>
+  <si>
+    <t>slot10</t>
+  </si>
+  <si>
+    <t>slot11</t>
   </si>
 </sst>
 </file>
@@ -138,8 +151,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,12 +454,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
       <c r="F1" t="s">
         <v>10</v>
       </c>
@@ -980,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,12 +1009,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
       <c r="F1" t="s">
         <v>10</v>
       </c>
@@ -1304,5 +1320,432 @@
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2.0703130000000001</v>
+      </c>
+      <c r="C2" s="2">
+        <v>10.75</v>
+      </c>
+      <c r="D2" s="2">
+        <v>7.0703129999999996</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10.375</v>
+      </c>
+      <c r="F2">
+        <v>4.57</v>
+      </c>
+      <c r="G2">
+        <v>8.7552000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0.25</v>
+      </c>
+      <c r="C3">
+        <v>9.7382810000000006</v>
+      </c>
+      <c r="D3">
+        <v>2.0625</v>
+      </c>
+      <c r="E3">
+        <v>9.3632810000000006</v>
+      </c>
+      <c r="F3">
+        <v>3.3405999999999998</v>
+      </c>
+      <c r="G3">
+        <v>9.5503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>7.09375</v>
+      </c>
+      <c r="C4">
+        <v>9.7382810000000006</v>
+      </c>
+      <c r="D4">
+        <v>8.90625</v>
+      </c>
+      <c r="E4">
+        <v>9.3632810000000006</v>
+      </c>
+      <c r="F4">
+        <v>5.4676</v>
+      </c>
+      <c r="G4">
+        <v>9.5503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0.25</v>
+      </c>
+      <c r="C5">
+        <v>9.3164060000000006</v>
+      </c>
+      <c r="D5">
+        <v>2.0625</v>
+      </c>
+      <c r="E5">
+        <v>8.9414060000000006</v>
+      </c>
+      <c r="F5">
+        <v>3.3405999999999998</v>
+      </c>
+      <c r="G5">
+        <v>9.1283999999999992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>7.09375</v>
+      </c>
+      <c r="C6">
+        <v>9.3164060000000006</v>
+      </c>
+      <c r="D6">
+        <v>8.90625</v>
+      </c>
+      <c r="E6">
+        <v>8.9414060000000006</v>
+      </c>
+      <c r="F6">
+        <v>5.4676</v>
+      </c>
+      <c r="G6">
+        <v>9.1283999999999992</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>0.25</v>
+      </c>
+      <c r="C7">
+        <v>8.8945310000000006</v>
+      </c>
+      <c r="D7">
+        <v>2.0625</v>
+      </c>
+      <c r="E7">
+        <v>8.5195310000000006</v>
+      </c>
+      <c r="F7">
+        <v>3.3405999999999998</v>
+      </c>
+      <c r="G7">
+        <v>8.7065000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>7.09375</v>
+      </c>
+      <c r="C8">
+        <v>8.8945310000000006</v>
+      </c>
+      <c r="D8">
+        <v>8.90625</v>
+      </c>
+      <c r="E8">
+        <v>8.5195310000000006</v>
+      </c>
+      <c r="F8">
+        <v>5.4676</v>
+      </c>
+      <c r="G8">
+        <v>8.7065000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>0.25</v>
+      </c>
+      <c r="C9">
+        <v>8.4765630000000005</v>
+      </c>
+      <c r="D9">
+        <v>2.0625</v>
+      </c>
+      <c r="E9">
+        <v>8.1015630000000005</v>
+      </c>
+      <c r="F9">
+        <v>3.3405999999999998</v>
+      </c>
+      <c r="G9">
+        <v>8.2866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>7.09375</v>
+      </c>
+      <c r="C10">
+        <v>8.4765630000000005</v>
+      </c>
+      <c r="D10">
+        <v>8.90625</v>
+      </c>
+      <c r="E10">
+        <v>8.1015630000000005</v>
+      </c>
+      <c r="F10">
+        <v>5.4676</v>
+      </c>
+      <c r="G10">
+        <v>8.2866</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>0.25</v>
+      </c>
+      <c r="C11">
+        <v>8.0546880000000005</v>
+      </c>
+      <c r="D11">
+        <v>2.0625</v>
+      </c>
+      <c r="E11">
+        <v>7.6796879999999996</v>
+      </c>
+      <c r="F11">
+        <v>3.3405999999999998</v>
+      </c>
+      <c r="G11">
+        <v>7.8647</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>7.09375</v>
+      </c>
+      <c r="C12">
+        <v>8.0546880000000005</v>
+      </c>
+      <c r="D12">
+        <v>8.90625</v>
+      </c>
+      <c r="E12">
+        <v>7.6796879999999996</v>
+      </c>
+      <c r="F12">
+        <v>5.4676</v>
+      </c>
+      <c r="G12">
+        <v>7.8647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>7.09375</v>
+      </c>
+      <c r="C13">
+        <v>10.203125</v>
+      </c>
+      <c r="D13">
+        <v>8.90625</v>
+      </c>
+      <c r="E13">
+        <v>9.828125</v>
+      </c>
+      <c r="F13">
+        <v>4.3920000000000003</v>
+      </c>
+      <c r="G13">
+        <v>10.016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2.3476560000000002</v>
+      </c>
+      <c r="C14">
+        <v>7.125</v>
+      </c>
+      <c r="D14">
+        <v>3.4101560000000002</v>
+      </c>
+      <c r="E14">
+        <v>6.75</v>
+      </c>
+      <c r="F14">
+        <v>2.8799000000000001</v>
+      </c>
+      <c r="G14">
+        <v>7.4025999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>3.4804689999999998</v>
+      </c>
+      <c r="C15">
+        <v>7.125</v>
+      </c>
+      <c r="D15">
+        <v>4.5429690000000003</v>
+      </c>
+      <c r="E15">
+        <v>6.75</v>
+      </c>
+      <c r="F15">
+        <v>4.0126999999999997</v>
+      </c>
+      <c r="G15">
+        <v>7.4025999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>4.6132809999999997</v>
+      </c>
+      <c r="C16">
+        <v>7.125</v>
+      </c>
+      <c r="D16">
+        <v>5.6757809999999997</v>
+      </c>
+      <c r="E16">
+        <v>6.75</v>
+      </c>
+      <c r="F16">
+        <v>5.1455000000000002</v>
+      </c>
+      <c r="G16">
+        <v>7.4025999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>5.7460940000000003</v>
+      </c>
+      <c r="C17">
+        <v>7.125</v>
+      </c>
+      <c r="D17">
+        <v>6.8085940000000003</v>
+      </c>
+      <c r="E17">
+        <v>6.75</v>
+      </c>
+      <c r="F17">
+        <v>6.2782999999999998</v>
+      </c>
+      <c r="G17">
+        <v>7.4025999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>2.0703130000000001</v>
+      </c>
+      <c r="C18">
+        <v>6.75</v>
+      </c>
+      <c r="D18">
+        <v>7.0703129999999996</v>
+      </c>
+      <c r="E18">
+        <v>6.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>